--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19134\Desktop\UCLAHealthTechAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A08E46C7-5524-45B0-B2FF-73CB0482DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62CCEA7-029B-4A04-9F2B-0A9D58716C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{F0B84122-B756-4DA3-A26B-639AB966FD1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0B84122-B756-4DA3-A26B-639AB966FD1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5 States with High Populati" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>Illinois</t>
   </si>
@@ -251,13 +251,19 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>Top 5 States With Highest Population Year-wise From 2013 to 2019</t>
+  </si>
+  <si>
+    <t>Top 5 States With Lowest Population Year-wise From 2013 to 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,16 +271,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,12 +307,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862AFA0B-8318-4F91-B0D7-B4D833AF565F}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,281 +737,324 @@
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1">
+      <c r="B6" s="3">
         <v>2013</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1">
+      <c r="D6" s="3">
         <v>2014</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1">
+      <c r="F6" s="3">
         <v>2015</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H1">
+      <c r="H6" s="3">
         <v>2016</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1">
+      <c r="J6" s="3">
         <v>2017</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L1">
+      <c r="L6" s="3">
         <v>2018</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N1">
+      <c r="N6" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B7" s="6">
         <v>38332521</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B8" s="6">
         <v>26448193</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B9" s="6">
         <v>19651127</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B10" s="6">
         <v>19552860</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B11" s="9">
         <v>12882135</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:L4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490329D0-A428-4144-9932-F9A163F76DA1}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,183 +1063,229 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1">
+      <c r="D6" s="3">
         <v>2013</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1">
+      <c r="F6" s="3">
         <v>2014</v>
       </c>
-      <c r="E1">
+      <c r="G6" s="3">
         <v>2015</v>
       </c>
-      <c r="F1">
+      <c r="H6" s="3">
         <v>2016</v>
       </c>
-      <c r="G1">
+      <c r="I6" s="3">
         <v>2017</v>
       </c>
-      <c r="H1">
+      <c r="J6" s="3">
         <v>2018</v>
       </c>
-      <c r="I1">
+      <c r="K6" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="D7" s="6">
         <v>582658</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="D8" s="6">
         <v>626630</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="D9" s="6">
         <v>646449</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K9" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="D10" s="6">
         <v>723393</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="D11" s="9">
         <v>735132</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K11" s="10" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:L4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>